--- a/LBO Model_Rohit_Jacob.xlsx
+++ b/LBO Model_Rohit_Jacob.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit Jacob\Downloads\Projects\LBO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BA235-F635-47EE-9D3E-ACCC891F767D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965E99C8-5BA5-4D47-B59C-C4B625C5F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D88036A-098D-4CCA-9F8E-59E01D5E3A23}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="1" xr2:uid="{9D88036A-098D-4CCA-9F8E-59E01D5E3A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x_)"/>
     <numFmt numFmtId="169" formatCode="0.0%_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,14 +416,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,14 +455,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -506,36 +507,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -644,22 +615,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -675,40 +637,52 @@
     <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1025,21 +999,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF405116-9CE1-4024-9F75-B3A2FD0BD861}">
   <dimension ref="A2:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77" t="str">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59" t="str">
         <f>TEXT(A3,"1.")</f>
         <v>1.</v>
       </c>
@@ -1048,15 +1022,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
       <c r="C4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77" t="str">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59" t="str">
         <f>TEXT(A5,"2.")</f>
         <v>2.</v>
       </c>
@@ -1065,8 +1039,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77" t="str">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59" t="str">
         <f>TEXT(A6,"3.")</f>
         <v>3.</v>
       </c>
@@ -1075,8 +1049,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77" t="str">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59" t="str">
         <f>TEXT(A7,"4.")</f>
         <v>4.</v>
       </c>
@@ -1086,7 +1060,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="18"/>
-      <c r="B8" s="77" t="str">
+      <c r="B8" s="59" t="str">
         <f>TEXT(A8,"5.")</f>
         <v>5.</v>
       </c>
@@ -1126,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C6F0EE-A6DF-4C0D-83BB-66277341DEEA}">
-  <dimension ref="A2:P106"/>
+  <dimension ref="A2:Q108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S70" sqref="S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1112,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="44"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
@@ -1208,7 +1182,7 @@
       <c r="B7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="62">
         <f>J9</f>
         <v>2500</v>
       </c>
@@ -1218,11 +1192,11 @@
       <c r="L7" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="24">
-        <v>4</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0.06</v>
+      <c r="N7" s="62">
+        <v>2</v>
+      </c>
+      <c r="O7" s="64">
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1231,23 +1205,23 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21">
+      <c r="E8" s="62">
         <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="63">
         <v>9500</v>
       </c>
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="24">
-        <v>2</v>
-      </c>
-      <c r="O8" s="23">
-        <v>0.12</v>
+      <c r="N8" s="62">
+        <v>4</v>
+      </c>
+      <c r="O8" s="64">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1263,7 +1237,7 @@
       <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="63">
         <v>2500</v>
       </c>
       <c r="K9" s="16"/>
@@ -1274,13 +1248,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="20">
+      <c r="E10" s="63">
         <v>9000</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="63">
         <v>100</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -1303,22 +1277,22 @@
       <c r="G11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="63">
         <v>90</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="75">
-        <f>O106</f>
-        <v>0.27492503503674226</v>
+      <c r="O11" s="61">
+        <f>O107</f>
+        <v>0.2574268396617545</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="63">
         <v>12000</v>
       </c>
     </row>
@@ -1326,7 +1300,7 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="63">
         <f>2%*E9</f>
         <v>500</v>
       </c>
@@ -1347,7 +1321,7 @@
       <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="64">
         <v>0.1</v>
       </c>
     </row>
@@ -1355,14 +1329,14 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="36">
         <f>E8</f>
         <v>10</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="64">
         <v>0.01</v>
       </c>
     </row>
@@ -1370,7 +1344,7 @@
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="64">
         <v>0.21</v>
       </c>
     </row>
@@ -1446,28 +1420,28 @@
       </c>
       <c r="E23" s="3">
         <f>F23*$J$9</f>
-        <v>10000</v>
-      </c>
-      <c r="F23" s="30">
+        <v>5000</v>
+      </c>
+      <c r="F23" s="80">
         <f>N7</f>
-        <v>4</v>
-      </c>
-      <c r="G23" s="25">
+        <v>2</v>
+      </c>
+      <c r="G23" s="20">
         <f>E23/$E$29</f>
-        <v>0.39215686274509803</v>
+        <v>0.19607843137254902</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="68">
         <f>E10</f>
         <v>9000</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="21">
         <f>M23/$J$9</f>
         <v>3.6</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23" s="20">
         <f>M23/$M$29</f>
         <v>0.35294117647058826</v>
       </c>
@@ -1477,32 +1451,32 @@
         <f>L8</f>
         <v>Senior Notes</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23">
         <f>F24*$J$9</f>
-        <v>5000</v>
-      </c>
-      <c r="F24" s="35">
+        <v>10000</v>
+      </c>
+      <c r="F24" s="81">
         <f>N8</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="29">
+        <v>4</v>
+      </c>
+      <c r="G24" s="24">
         <f t="shared" ref="G24:G25" si="0">E24/$E$29</f>
-        <v>0.19607843137254902</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="J24" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="68">
         <f>E11</f>
         <v>16000</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="21">
         <f>M24/$J$9</f>
         <v>6.4</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="20">
         <f>M24/$M$29</f>
         <v>0.62745098039215685</v>
       </c>
@@ -1517,31 +1491,31 @@
         <f>E23+E24</f>
         <v>15000</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="25">
         <f>E25/$J$9</f>
         <v>6</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="26">
         <f t="shared" si="0"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="25"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="J26" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="68">
         <f>E13</f>
         <v>500</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="21">
         <f>M26/$J$9</f>
         <v>0.2</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="20">
         <f>M26/$M$29</f>
         <v>1.9607843137254902E-2</v>
       </c>
@@ -1554,67 +1528,67 @@
         <f>E29-E25</f>
         <v>10500</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="21">
         <f>E27/$J$9</f>
         <v>4.2</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="20">
         <f>E27/$E$29</f>
         <v>0.41176470588235292</v>
       </c>
-      <c r="M27" s="27"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E28" s="3"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="25"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29">
         <f>M29</f>
         <v>25500</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="30">
         <f>E29/$J$9</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="31">
         <f>G25+G27</f>
         <v>1</v>
       </c>
-      <c r="J29" s="36" t="s">
+      <c r="J29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38">
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29">
         <f>M23+M24+M26</f>
         <v>25500</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="30">
         <f>M29/$J$9</f>
         <v>10.199999999999999</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="31">
         <f>O23+O24+O26</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E30" s="3"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="25"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="25"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
@@ -1637,8 +1611,8 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="2:15" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:16" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
@@ -1668,11 +1642,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="49">
+      <c r="J35" s="40">
         <f>J8</f>
         <v>9500</v>
       </c>
@@ -1697,393 +1671,394 @@
         <v>15299.845000000007</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J36" s="50"/>
-      <c r="K36" s="46">
+      <c r="J36" s="41"/>
+      <c r="K36" s="37">
         <f>$J$15</f>
         <v>0.1</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="37">
         <f>K36</f>
         <v>0.1</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="37">
         <f t="shared" ref="M36:O36" si="2">L36</f>
         <v>0.1</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="37">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="37">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J37" s="50"/>
-    </row>
-    <row r="38" spans="2:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="2:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J38" s="40">
         <f>J9</f>
         <v>2500</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="32">
         <f>K35*K39</f>
         <v>2854.5</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="32">
         <f>L35*L39</f>
         <v>3254.9000000000005</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="32">
         <f>M35*M39</f>
         <v>3706.8350000000014</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="32">
         <f>N35*N39</f>
         <v>4216.608000000002</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O38" s="32">
         <f>O35*O39</f>
         <v>4791.2672500000026</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="42">
         <f>J38/J35</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="33">
         <f>J39+$J$16</f>
         <v>0.2731578947368421</v>
       </c>
-      <c r="L39" s="42">
+      <c r="L39" s="33">
         <f t="shared" ref="L39:O39" si="3">K39+$J$16</f>
         <v>0.28315789473684211</v>
       </c>
-      <c r="M39" s="42">
+      <c r="M39" s="33">
         <f t="shared" si="3"/>
         <v>0.29315789473684212</v>
       </c>
-      <c r="N39" s="42">
+      <c r="N39" s="33">
         <f t="shared" si="3"/>
         <v>0.30315789473684213</v>
       </c>
-      <c r="O39" s="42">
+      <c r="O39" s="33">
         <f t="shared" si="3"/>
         <v>0.31315789473684214</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J40" s="50"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J40" s="41"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J41" s="43">
         <f t="shared" ref="J41:O41" si="4">J38-J56</f>
         <v>2400</v>
       </c>
-      <c r="K41" s="48">
+      <c r="K41" s="39">
         <f t="shared" si="4"/>
         <v>2744.5</v>
       </c>
-      <c r="L41" s="48">
+      <c r="L41" s="39">
         <f t="shared" si="4"/>
         <v>3133.9000000000005</v>
       </c>
-      <c r="M41" s="48">
+      <c r="M41" s="39">
         <f t="shared" si="4"/>
         <v>3573.7350000000015</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="39">
         <f t="shared" si="4"/>
         <v>4070.1980000000021</v>
       </c>
-      <c r="O41" s="48">
+      <c r="O41" s="39">
         <f t="shared" si="4"/>
         <v>4630.2162500000022</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="42">
         <f>J41/J35</f>
         <v>0.25263157894736843</v>
       </c>
-      <c r="K42" s="47">
+      <c r="K42" s="38">
         <f t="shared" ref="K42:O42" si="5">K41/K35</f>
         <v>0.26263157894736844</v>
       </c>
-      <c r="L42" s="47">
+      <c r="L42" s="38">
         <f t="shared" si="5"/>
         <v>0.27263157894736845</v>
       </c>
-      <c r="M42" s="47">
+      <c r="M42" s="38">
         <f t="shared" si="5"/>
         <v>0.28263157894736846</v>
       </c>
-      <c r="N42" s="47">
+      <c r="N42" s="38">
         <f t="shared" si="5"/>
         <v>0.29263157894736846</v>
       </c>
-      <c r="O42" s="47">
+      <c r="O42" s="38">
         <f t="shared" si="5"/>
         <v>0.30263157894736842</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="5"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="J43" s="42"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="J44" s="50"/>
-      <c r="K44" s="76">
-        <f>K91</f>
-        <v>1200</v>
-      </c>
-      <c r="L44" s="76">
-        <f t="shared" ref="L44:O44" si="6">L91</f>
-        <v>1198.1306999999999</v>
-      </c>
-      <c r="M44" s="76">
+      <c r="J44" s="41"/>
+      <c r="K44" s="71">
+        <f>K92</f>
+        <v>1600</v>
+      </c>
+      <c r="L44" s="71">
+        <f t="shared" ref="L44:O44" si="6">L92</f>
+        <v>1662.6659</v>
+      </c>
+      <c r="M44" s="71">
         <f t="shared" si="6"/>
-        <v>1184.8492351800001</v>
-      </c>
-      <c r="N44" s="76">
+        <v>1694.7034134200003</v>
+      </c>
+      <c r="N44" s="71">
         <f t="shared" si="6"/>
-        <v>1157.9374499275323</v>
-      </c>
-      <c r="O44" s="76">
+        <v>1689.2140190122163</v>
+      </c>
+      <c r="O44" s="71">
         <f t="shared" si="6"/>
-        <v>1114.8498398540971</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J45" s="49"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+        <v>1653.4038176145743</v>
+      </c>
+      <c r="P44" s="72"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J45" s="40"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>44</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="44">
         <f>J41-J44</f>
         <v>2400</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="32">
         <f t="shared" ref="K46:O46" si="7">K41-K44</f>
-        <v>1544.5</v>
-      </c>
-      <c r="L46" s="41">
+        <v>1144.5</v>
+      </c>
+      <c r="L46" s="32">
         <f t="shared" si="7"/>
-        <v>1935.7693000000006</v>
-      </c>
-      <c r="M46" s="41">
+        <v>1471.2341000000006</v>
+      </c>
+      <c r="M46" s="32">
         <f t="shared" si="7"/>
-        <v>2388.8857648200014</v>
-      </c>
-      <c r="N46" s="41">
+        <v>1879.0315865800012</v>
+      </c>
+      <c r="N46" s="32">
         <f t="shared" si="7"/>
-        <v>2912.2605500724699</v>
-      </c>
-      <c r="O46" s="41">
+        <v>2380.9839809877858</v>
+      </c>
+      <c r="O46" s="32">
         <f t="shared" si="7"/>
-        <v>3515.3664101459053</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+        <v>2976.8124323854281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="54">
+      <c r="J47" s="65">
         <f>J46/J35</f>
         <v>0.25263157894736843</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="66">
         <f t="shared" ref="K47:O47" si="8">K46/K35</f>
-        <v>0.14779904306220096</v>
-      </c>
-      <c r="L47" s="46">
+        <v>0.10952153110047846</v>
+      </c>
+      <c r="L47" s="66">
         <f t="shared" si="8"/>
-        <v>0.16840098303610268</v>
-      </c>
-      <c r="M47" s="46">
+        <v>0.12798904741191824</v>
+      </c>
+      <c r="M47" s="66">
         <f t="shared" si="8"/>
-        <v>0.18892686660761601</v>
-      </c>
-      <c r="N47" s="46">
+        <v>0.14860465709043463</v>
+      </c>
+      <c r="N47" s="66">
         <f t="shared" si="8"/>
-        <v>0.20938033065561878</v>
-      </c>
-      <c r="O47" s="46">
+        <v>0.17118358905508935</v>
+      </c>
+      <c r="O47" s="66">
         <f t="shared" si="8"/>
-        <v>0.22976483815005341</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="J48" s="53"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.19456487515954748</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J48" s="44"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="J49" s="49">
+      <c r="J49" s="67">
         <f>J46*J50</f>
         <v>504</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="68">
         <f t="shared" ref="K49:O49" si="9">K46*K50</f>
-        <v>324.34499999999997</v>
-      </c>
-      <c r="L49" s="31">
+        <v>240.345</v>
+      </c>
+      <c r="L49" s="68">
         <f t="shared" si="9"/>
-        <v>406.51155300000011</v>
-      </c>
-      <c r="M49" s="31">
+        <v>308.95916100000011</v>
+      </c>
+      <c r="M49" s="68">
         <f t="shared" si="9"/>
-        <v>501.6660106122003</v>
-      </c>
-      <c r="N49" s="31">
+        <v>394.59663318180026</v>
+      </c>
+      <c r="N49" s="68">
         <f t="shared" si="9"/>
-        <v>611.5747155152186</v>
-      </c>
-      <c r="O49" s="31">
+        <v>500.00663600743502</v>
+      </c>
+      <c r="O49" s="68">
         <f t="shared" si="9"/>
-        <v>738.22694613064004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>625.13061080093985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="54">
+      <c r="J50" s="65">
         <f>$J$17</f>
         <v>0.21</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="66">
         <f>J50</f>
         <v>0.21</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="66">
         <f t="shared" ref="L50:O50" si="10">K50</f>
         <v>0.21</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="66">
         <f t="shared" si="10"/>
         <v>0.21</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="66">
         <f t="shared" si="10"/>
         <v>0.21</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="66">
         <f t="shared" si="10"/>
         <v>0.21</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B51" s="5"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J51" s="45"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J52" s="69">
         <f>J46-J49</f>
         <v>1896</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="70">
         <f t="shared" ref="K52:O52" si="11">K46-K49</f>
-        <v>1220.155</v>
-      </c>
-      <c r="L52" s="41">
+        <v>904.15499999999997</v>
+      </c>
+      <c r="L52" s="70">
         <f t="shared" si="11"/>
-        <v>1529.2577470000006</v>
-      </c>
-      <c r="M52" s="41">
+        <v>1162.2749390000004</v>
+      </c>
+      <c r="M52" s="70">
         <f t="shared" si="11"/>
-        <v>1887.2197542078011</v>
-      </c>
-      <c r="N52" s="41">
+        <v>1484.4349533982008</v>
+      </c>
+      <c r="N52" s="70">
         <f t="shared" si="11"/>
-        <v>2300.6858345572514</v>
-      </c>
-      <c r="O52" s="41">
+        <v>1880.9773449803508</v>
+      </c>
+      <c r="O52" s="70">
         <f t="shared" si="11"/>
-        <v>2777.1394640152653</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2351.6818215844883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J53" s="54">
+      <c r="J53" s="65">
         <f>J52/J35</f>
         <v>0.19957894736842105</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K53" s="66">
         <f t="shared" ref="K53:O53" si="12">K52/K35</f>
-        <v>0.11676124401913876</v>
-      </c>
-      <c r="L53" s="46">
+        <v>8.6522009569377986E-2</v>
+      </c>
+      <c r="L53" s="66">
         <f t="shared" si="12"/>
-        <v>0.13303677659852112</v>
-      </c>
-      <c r="M53" s="46">
+        <v>0.10111134745541542</v>
+      </c>
+      <c r="M53" s="66">
         <f t="shared" si="12"/>
-        <v>0.14925222462001664</v>
-      </c>
-      <c r="N53" s="46">
+        <v>0.11739767910144334</v>
+      </c>
+      <c r="N53" s="66">
         <f t="shared" si="12"/>
-        <v>0.16541046121793887</v>
-      </c>
-      <c r="O53" s="46">
+        <v>0.13523503535352061</v>
+      </c>
+      <c r="O53" s="66">
         <f t="shared" si="12"/>
-        <v>0.18151422213854218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0.15370625137604252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B54" s="5"/>
-      <c r="J54" s="50"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J54" s="41"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -2116,1022 +2091,1111 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="J56" s="49">
+      <c r="J56" s="40">
         <f>J10</f>
         <v>100</v>
       </c>
-      <c r="K56" s="41">
+      <c r="K56" s="32">
         <f>K57*K35</f>
         <v>110</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="32">
         <f>L57*L35</f>
         <v>121.00000000000001</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="32">
         <f>M57*M35</f>
         <v>133.10000000000002</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="32">
         <f>N57*N35</f>
         <v>146.41000000000005</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="32">
         <f>O57*O35</f>
         <v>161.05100000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="65">
         <f>J56/J35</f>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="K57" s="46">
+      <c r="K57" s="66">
         <f>J57</f>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="L57" s="46">
+      <c r="L57" s="66">
         <f t="shared" ref="L57:O57" si="13">K57</f>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57" s="66">
         <f t="shared" si="13"/>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N57" s="66">
         <f t="shared" si="13"/>
         <v>1.0526315789473684E-2</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="66">
         <f t="shared" si="13"/>
         <v>1.0526315789473684E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B58" s="5"/>
-      <c r="J58" s="50"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="J58" s="41"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>48</v>
       </c>
-      <c r="J59" s="49">
+      <c r="J59" s="40">
         <f>J12</f>
         <v>12000</v>
       </c>
-      <c r="K59" s="41">
+      <c r="K59" s="32">
         <f>K35*K60</f>
         <v>13200</v>
       </c>
-      <c r="L59" s="41">
+      <c r="L59" s="32">
         <f t="shared" ref="L59:O59" si="14">L35*L60</f>
         <v>14520.000000000002</v>
       </c>
-      <c r="M59" s="41">
+      <c r="M59" s="32">
         <f t="shared" si="14"/>
         <v>15972.000000000004</v>
       </c>
-      <c r="N59" s="41">
+      <c r="N59" s="32">
         <f t="shared" si="14"/>
         <v>17569.200000000004</v>
       </c>
-      <c r="O59" s="41">
+      <c r="O59" s="32">
         <f t="shared" si="14"/>
         <v>19326.120000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J60" s="56">
+      <c r="J60" s="46">
         <f>J59/J35</f>
         <v>1.263157894736842</v>
       </c>
-      <c r="K60" s="46">
+      <c r="K60" s="66">
         <f>J60</f>
         <v>1.263157894736842</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="66">
         <f t="shared" ref="L60:O60" si="15">K60</f>
         <v>1.263157894736842</v>
       </c>
-      <c r="M60" s="46">
+      <c r="M60" s="66">
         <f t="shared" si="15"/>
         <v>1.263157894736842</v>
       </c>
-      <c r="N60" s="46">
+      <c r="N60" s="66">
         <f t="shared" si="15"/>
         <v>1.263157894736842</v>
       </c>
-      <c r="O60" s="46">
+      <c r="O60" s="66">
         <f t="shared" si="15"/>
         <v>1.263157894736842</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+      <c r="P60" s="72"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+      <c r="P61" s="72"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
         <v>55</v>
       </c>
-      <c r="J61" s="56"/>
-      <c r="K61" s="41">
-        <f>K59-J59</f>
-        <v>1200</v>
-      </c>
-      <c r="L61" s="41">
-        <f t="shared" ref="L61:O61" si="16">L59-K59</f>
-        <v>1320.0000000000018</v>
-      </c>
-      <c r="M61" s="41">
+      <c r="J62" s="46"/>
+      <c r="K62" s="32">
+        <f>J59-K59</f>
+        <v>-1200</v>
+      </c>
+      <c r="L62" s="32">
+        <f t="shared" ref="L62:O62" si="16">K59-L59</f>
+        <v>-1320.0000000000018</v>
+      </c>
+      <c r="M62" s="32">
         <f t="shared" si="16"/>
-        <v>1452.0000000000018</v>
-      </c>
-      <c r="N61" s="41">
+        <v>-1452.0000000000018</v>
+      </c>
+      <c r="N62" s="32">
         <f t="shared" si="16"/>
-        <v>1597.2000000000007</v>
-      </c>
-      <c r="O61" s="41">
+        <v>-1597.2000000000007</v>
+      </c>
+      <c r="O62" s="32">
         <f t="shared" si="16"/>
-        <v>1756.9200000000019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B62" s="5"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
+        <v>-1756.9200000000019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
         <v>53</v>
       </c>
-      <c r="J63" s="55">
+      <c r="J64" s="40">
         <f>J11</f>
         <v>90</v>
       </c>
-      <c r="K63" s="41">
-        <f>K64*K35</f>
+      <c r="K64" s="32">
+        <f>K65*K35</f>
         <v>99</v>
       </c>
-      <c r="L63" s="41">
-        <f t="shared" ref="L63:O63" si="17">L64*L35</f>
+      <c r="L64" s="32">
+        <f t="shared" ref="L64:O64" si="17">L65*L35</f>
         <v>108.90000000000002</v>
       </c>
-      <c r="M63" s="41">
+      <c r="M64" s="32">
         <f t="shared" si="17"/>
         <v>119.79000000000005</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N64" s="32">
         <f t="shared" si="17"/>
         <v>131.76900000000006</v>
       </c>
-      <c r="O63" s="41">
+      <c r="O64" s="32">
         <f t="shared" si="17"/>
         <v>144.94590000000008</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B64" s="5" t="s">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="56">
-        <f>J63/J35</f>
+      <c r="J65" s="46">
+        <f>J64/J35</f>
         <v>9.4736842105263164E-3</v>
       </c>
-      <c r="K64" s="46">
-        <f>J64</f>
+      <c r="K65" s="66">
+        <f>J65</f>
         <v>9.4736842105263164E-3</v>
       </c>
-      <c r="L64" s="46">
-        <f t="shared" ref="L64:O64" si="18">K64</f>
+      <c r="L65" s="66">
+        <f t="shared" ref="L65:O65" si="18">K65</f>
         <v>9.4736842105263164E-3</v>
       </c>
-      <c r="M64" s="46">
+      <c r="M65" s="66">
         <f t="shared" si="18"/>
         <v>9.4736842105263164E-3</v>
       </c>
-      <c r="N64" s="46">
+      <c r="N65" s="66">
         <f t="shared" si="18"/>
         <v>9.4736842105263164E-3</v>
       </c>
-      <c r="O64" s="46">
+      <c r="O65" s="66">
         <f t="shared" si="18"/>
         <v>9.4736842105263164E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C65" s="5"/>
-      <c r="J65" s="50"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="10" t="s">
+      <c r="P65" s="72"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C66" s="5"/>
+      <c r="J66" s="41"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="13" t="s">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K66" s="13" t="s">
+      <c r="K67" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L66" s="13" t="s">
+      <c r="L67" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M66" s="13" t="s">
+      <c r="M67" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N66" s="13" t="s">
+      <c r="N67" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O66" s="13" t="s">
+      <c r="O67" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>47</v>
       </c>
-      <c r="J67" s="50"/>
-      <c r="K67" s="59">
+      <c r="J68" s="41"/>
+      <c r="K68" s="70">
         <f>K52</f>
-        <v>1220.155</v>
-      </c>
-      <c r="L67" s="59">
-        <f t="shared" ref="L67:O67" si="19">L52</f>
-        <v>1529.2577470000006</v>
-      </c>
-      <c r="M67" s="59">
+        <v>904.15499999999997</v>
+      </c>
+      <c r="L68" s="70">
+        <f t="shared" ref="L68:O68" si="19">L52</f>
+        <v>1162.2749390000004</v>
+      </c>
+      <c r="M68" s="70">
         <f t="shared" si="19"/>
-        <v>1887.2197542078011</v>
-      </c>
-      <c r="N67" s="59">
+        <v>1484.4349533982008</v>
+      </c>
+      <c r="N68" s="70">
         <f t="shared" si="19"/>
-        <v>2300.6858345572514</v>
-      </c>
-      <c r="O67" s="59">
+        <v>1880.9773449803508</v>
+      </c>
+      <c r="O68" s="70">
         <f t="shared" si="19"/>
-        <v>2777.1394640152653</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+        <v>2351.6818215844883</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="50"/>
-      <c r="K68" s="59">
+      <c r="J69" s="41"/>
+      <c r="K69" s="70">
         <f>K56</f>
         <v>110</v>
       </c>
-      <c r="L68" s="59">
-        <f t="shared" ref="L68:O68" si="20">L56</f>
+      <c r="L69" s="70">
+        <f t="shared" ref="L69:O69" si="20">L56</f>
         <v>121.00000000000001</v>
       </c>
-      <c r="M68" s="59">
+      <c r="M69" s="70">
         <f t="shared" si="20"/>
         <v>133.10000000000002</v>
       </c>
-      <c r="N68" s="59">
+      <c r="N69" s="70">
         <f t="shared" si="20"/>
         <v>146.41000000000005</v>
       </c>
-      <c r="O68" s="59">
+      <c r="O69" s="70">
         <f t="shared" si="20"/>
         <v>161.05100000000007</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>53</v>
       </c>
-      <c r="J69" s="50"/>
-      <c r="K69" s="59">
-        <f>K63</f>
-        <v>99</v>
-      </c>
-      <c r="L69" s="59">
-        <f>L63</f>
-        <v>108.90000000000002</v>
-      </c>
-      <c r="M69" s="59">
-        <f>M63</f>
-        <v>119.79000000000005</v>
-      </c>
-      <c r="N69" s="59">
-        <f>N63</f>
-        <v>131.76900000000006</v>
-      </c>
-      <c r="O69" s="59">
-        <f>O63</f>
-        <v>144.94590000000008</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B70" s="1" t="s">
+      <c r="J70" s="41"/>
+      <c r="K70" s="70">
+        <f>-K64</f>
+        <v>-99</v>
+      </c>
+      <c r="L70" s="70">
+        <f t="shared" ref="L70:O70" si="21">-L64</f>
+        <v>-108.90000000000002</v>
+      </c>
+      <c r="M70" s="70">
+        <f t="shared" si="21"/>
+        <v>-119.79000000000005</v>
+      </c>
+      <c r="N70" s="70">
+        <f t="shared" si="21"/>
+        <v>-131.76900000000006</v>
+      </c>
+      <c r="O70" s="70">
+        <f t="shared" si="21"/>
+        <v>-144.94590000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="60">
-        <f>K61</f>
-        <v>1200</v>
-      </c>
-      <c r="L70" s="60">
-        <f t="shared" ref="L70:O70" si="21">L61</f>
-        <v>1320.0000000000018</v>
-      </c>
-      <c r="M70" s="60">
-        <f t="shared" si="21"/>
-        <v>1452.0000000000018</v>
-      </c>
-      <c r="N70" s="60">
-        <f t="shared" si="21"/>
-        <v>1597.2000000000007</v>
-      </c>
-      <c r="O70" s="60">
-        <f t="shared" si="21"/>
-        <v>1756.9200000000019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B71" s="36" t="s">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="73">
+        <f>K62</f>
+        <v>-1200</v>
+      </c>
+      <c r="L71" s="73">
+        <f t="shared" ref="L71:O71" si="22">L62</f>
+        <v>-1320.0000000000018</v>
+      </c>
+      <c r="M71" s="73">
+        <f t="shared" si="22"/>
+        <v>-1452.0000000000018</v>
+      </c>
+      <c r="N71" s="73">
+        <f t="shared" si="22"/>
+        <v>-1597.2000000000007</v>
+      </c>
+      <c r="O71" s="73">
+        <f t="shared" si="22"/>
+        <v>-1756.9200000000019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="62">
-        <f>K67+K68-K69-K70</f>
-        <v>31.154999999999973</v>
-      </c>
-      <c r="L71" s="62">
-        <f t="shared" ref="L71:O71" si="22">L67+L68-L69-L70</f>
-        <v>221.35774699999865</v>
-      </c>
-      <c r="M71" s="62">
-        <f t="shared" si="22"/>
-        <v>448.52975420779921</v>
-      </c>
-      <c r="N71" s="62">
-        <f t="shared" si="22"/>
-        <v>718.12683455725028</v>
-      </c>
-      <c r="O71" s="63">
-        <f t="shared" si="22"/>
-        <v>1036.3245640152631</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="10" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="50">
+        <f>K68+K69+K70+K71</f>
+        <v>-284.84500000000003</v>
+      </c>
+      <c r="L72" s="50">
+        <f t="shared" ref="L72:O72" si="23">L68+L69+L70+L71</f>
+        <v>-145.62506100000155</v>
+      </c>
+      <c r="M72" s="50">
+        <f t="shared" si="23"/>
+        <v>45.744953398198959</v>
+      </c>
+      <c r="N72" s="50">
+        <f t="shared" si="23"/>
+        <v>298.41834498035018</v>
+      </c>
+      <c r="O72" s="51">
+        <f t="shared" si="23"/>
+        <v>610.86692158448614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B75" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="13" t="s">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K76" s="13" t="s">
+      <c r="K77" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L76" s="13" t="s">
+      <c r="L77" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M76" s="13" t="s">
+      <c r="M77" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N76" s="13" t="s">
+      <c r="N77" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O76" s="13" t="s">
+      <c r="O77" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B77" s="8" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B78" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J77" s="50"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B78" t="s">
+      <c r="J78" s="41"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
         <v>59</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="31">
-        <f>J81</f>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="68">
+        <f>J82</f>
+        <v>5000</v>
+      </c>
+      <c r="L79" s="68">
+        <f t="shared" ref="L79:O79" si="24">K82</f>
+        <v>5284.8450000000003</v>
+      </c>
+      <c r="M79" s="68">
+        <f t="shared" si="24"/>
+        <v>5430.4700610000018</v>
+      </c>
+      <c r="N79" s="68">
+        <f t="shared" si="24"/>
+        <v>5384.7251076018028</v>
+      </c>
+      <c r="O79" s="68">
+        <f t="shared" si="24"/>
+        <v>5086.3067626214524</v>
+      </c>
+      <c r="P79" s="72"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="39">
+        <f>K79*$O$7</f>
+        <v>600</v>
+      </c>
+      <c r="L80" s="39">
+        <f t="shared" ref="L80:O80" si="25">L79*$O$7</f>
+        <v>634.18140000000005</v>
+      </c>
+      <c r="M80" s="39">
+        <f t="shared" si="25"/>
+        <v>651.6564073200002</v>
+      </c>
+      <c r="N80" s="39">
+        <f t="shared" si="25"/>
+        <v>646.16701291221636</v>
+      </c>
+      <c r="O80" s="39">
+        <f t="shared" si="25"/>
+        <v>610.35681151457425</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="34">
+        <f>MIN(K72,K79)</f>
+        <v>-284.84500000000003</v>
+      </c>
+      <c r="L81" s="34">
+        <f t="shared" ref="L81:O81" si="26">MIN(L72,L79)</f>
+        <v>-145.62506100000155</v>
+      </c>
+      <c r="M81" s="34">
+        <f t="shared" si="26"/>
+        <v>45.744953398198959</v>
+      </c>
+      <c r="N81" s="34">
+        <f t="shared" si="26"/>
+        <v>298.41834498035018</v>
+      </c>
+      <c r="O81" s="34">
+        <f t="shared" si="26"/>
+        <v>610.86692158448614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B82" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="74">
+        <f>E23</f>
+        <v>5000</v>
+      </c>
+      <c r="K82" s="48">
+        <f>K79-K81</f>
+        <v>5284.8450000000003</v>
+      </c>
+      <c r="L82" s="48">
+        <f t="shared" ref="L82:O82" si="27">L79-L81</f>
+        <v>5430.4700610000018</v>
+      </c>
+      <c r="M82" s="48">
+        <f t="shared" si="27"/>
+        <v>5384.7251076018028</v>
+      </c>
+      <c r="N82" s="48">
+        <f t="shared" si="27"/>
+        <v>5086.3067626214524</v>
+      </c>
+      <c r="O82" s="52">
+        <f t="shared" si="27"/>
+        <v>4475.4398410369668</v>
+      </c>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J83" s="75"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="72"/>
+      <c r="M83" s="72"/>
+      <c r="N83" s="72"/>
+      <c r="O83" s="72"/>
+      <c r="P83" s="72"/>
+      <c r="Q83" s="72"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="75"/>
+      <c r="K84" s="72"/>
+      <c r="L84" s="72"/>
+      <c r="M84" s="72"/>
+      <c r="N84" s="72"/>
+      <c r="O84" s="72"/>
+      <c r="P84" s="72"/>
+      <c r="Q84" s="72"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="J85" s="75"/>
+      <c r="K85" s="68">
+        <f>J88</f>
         <v>10000</v>
       </c>
-      <c r="L78" s="31">
-        <f t="shared" ref="L78:O78" si="23">K81</f>
-        <v>9968.8449999999993</v>
-      </c>
-      <c r="M78" s="31">
-        <f t="shared" si="23"/>
-        <v>9747.4872530000011</v>
-      </c>
-      <c r="N78" s="31">
-        <f t="shared" si="23"/>
-        <v>9298.9574987922024</v>
-      </c>
-      <c r="O78" s="31">
-        <f t="shared" si="23"/>
-        <v>8580.8306642349526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
+      <c r="L85" s="68">
+        <f t="shared" ref="L85:O85" si="28">K88</f>
+        <v>10284.844999999999</v>
+      </c>
+      <c r="M85" s="68">
+        <f t="shared" si="28"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="N85" s="68">
+        <f t="shared" si="28"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="O85" s="68">
+        <f t="shared" si="28"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="P85" s="72"/>
+      <c r="Q85" s="72"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="48">
-        <f>K78*$O$7</f>
-        <v>600</v>
-      </c>
-      <c r="L79" s="48">
-        <f t="shared" ref="L79:O79" si="24">L78*$O$7</f>
-        <v>598.13069999999993</v>
-      </c>
-      <c r="M79" s="48">
-        <f t="shared" si="24"/>
-        <v>584.84923518000005</v>
-      </c>
-      <c r="N79" s="48">
-        <f t="shared" si="24"/>
-        <v>557.93744992753216</v>
-      </c>
-      <c r="O79" s="48">
-        <f t="shared" si="24"/>
-        <v>514.84983985409713</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B80" s="1" t="s">
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="68">
+        <f>K85*$O$8</f>
+        <v>1000</v>
+      </c>
+      <c r="L86" s="68">
+        <f t="shared" ref="L86:O86" si="29">L85*$O$8</f>
+        <v>1028.4845</v>
+      </c>
+      <c r="M86" s="68">
+        <f t="shared" si="29"/>
+        <v>1043.0470061000001</v>
+      </c>
+      <c r="N86" s="68">
+        <f t="shared" si="29"/>
+        <v>1043.0470061000001</v>
+      </c>
+      <c r="O86" s="68">
+        <f t="shared" si="29"/>
+        <v>1043.0470061000001</v>
+      </c>
+      <c r="P86" s="72"/>
+      <c r="Q86" s="72"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="43">
-        <f>MIN(K71,K78)</f>
-        <v>31.154999999999973</v>
-      </c>
-      <c r="L80" s="43">
-        <f t="shared" ref="L80:O80" si="25">MIN(L71,L78)</f>
-        <v>221.35774699999865</v>
-      </c>
-      <c r="M80" s="43">
-        <f t="shared" si="25"/>
-        <v>448.52975420779921</v>
-      </c>
-      <c r="N80" s="43">
-        <f t="shared" si="25"/>
-        <v>718.12683455725028</v>
-      </c>
-      <c r="O80" s="43">
-        <f t="shared" si="25"/>
-        <v>1036.3245640152631</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B81" s="8" t="s">
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="J87" s="76"/>
+      <c r="K87" s="77">
+        <f>MIN(K72-K81,K72)</f>
+        <v>-284.84500000000003</v>
+      </c>
+      <c r="L87" s="77">
+        <f t="shared" ref="L87:O87" si="30">MIN(L72-L81,L72)</f>
+        <v>-145.62506100000155</v>
+      </c>
+      <c r="M87" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O87" s="77">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="70"/>
+      <c r="Q87" s="72"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="8"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="64">
-        <f>E23</f>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="J88" s="74">
+        <f>E24</f>
         <v>10000</v>
       </c>
-      <c r="K81" s="58">
-        <f>K78-K80</f>
-        <v>9968.8449999999993</v>
-      </c>
-      <c r="L81" s="58">
-        <f t="shared" ref="L81:O81" si="26">L78-L80</f>
-        <v>9747.4872530000011</v>
-      </c>
-      <c r="M81" s="58">
-        <f t="shared" si="26"/>
-        <v>9298.9574987922024</v>
-      </c>
-      <c r="N81" s="58">
-        <f t="shared" si="26"/>
-        <v>8580.8306642349526</v>
-      </c>
-      <c r="O81" s="65">
-        <f t="shared" si="26"/>
-        <v>7544.506100219689</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J82" s="50"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B83" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="50"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B84" t="s">
+      <c r="K88" s="48">
+        <f>K85-K87</f>
+        <v>10284.844999999999</v>
+      </c>
+      <c r="L88" s="48">
+        <f t="shared" ref="L88:O88" si="31">L85-L87</f>
+        <v>10430.470061</v>
+      </c>
+      <c r="M88" s="48">
+        <f t="shared" si="31"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="N88" s="48">
+        <f t="shared" si="31"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="O88" s="48">
+        <f t="shared" si="31"/>
+        <v>10430.470061</v>
+      </c>
+      <c r="P88" s="72"/>
+      <c r="Q88" s="72"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J89" s="75"/>
+      <c r="K89" s="72"/>
+      <c r="L89" s="72"/>
+      <c r="M89" s="72"/>
+      <c r="N89" s="72"/>
+      <c r="O89" s="72"/>
+      <c r="P89" s="72"/>
+      <c r="Q89" s="72"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B90" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="75"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="72"/>
+      <c r="N90" s="72"/>
+      <c r="O90" s="72"/>
+      <c r="P90" s="72"/>
+      <c r="Q90" s="72"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>59</v>
       </c>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="31">
-        <f>J87</f>
-        <v>5000</v>
-      </c>
-      <c r="L84" s="31">
-        <f t="shared" ref="L84:O84" si="27">K87</f>
-        <v>5000</v>
-      </c>
-      <c r="M84" s="31">
-        <f t="shared" si="27"/>
-        <v>5000</v>
-      </c>
-      <c r="N84" s="31">
-        <f t="shared" si="27"/>
-        <v>5000</v>
-      </c>
-      <c r="O84" s="31">
-        <f t="shared" si="27"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="68">
+        <f>J94</f>
+        <v>15000</v>
+      </c>
+      <c r="L91" s="68">
+        <f t="shared" ref="L91:O91" si="32">K94</f>
+        <v>15569.69</v>
+      </c>
+      <c r="M91" s="68">
+        <f t="shared" si="32"/>
+        <v>15860.940122000004</v>
+      </c>
+      <c r="N91" s="68">
+        <f t="shared" si="32"/>
+        <v>15815.195168601804</v>
+      </c>
+      <c r="O91" s="68">
+        <f t="shared" si="32"/>
+        <v>15516.776823621454</v>
+      </c>
+      <c r="P91" s="72"/>
+      <c r="Q91" s="72"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>57</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="J85" s="50"/>
-      <c r="K85" s="48">
-        <f>K84*$O$8</f>
-        <v>600</v>
-      </c>
-      <c r="L85" s="48">
-        <f t="shared" ref="L85:O85" si="28">L84*$O$8</f>
-        <v>600</v>
-      </c>
-      <c r="M85" s="48">
-        <f t="shared" si="28"/>
-        <v>600</v>
-      </c>
-      <c r="N85" s="48">
-        <f t="shared" si="28"/>
-        <v>600</v>
-      </c>
-      <c r="O85" s="48">
-        <f t="shared" si="28"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B86" t="s">
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="68">
+        <f>K80+K86</f>
+        <v>1600</v>
+      </c>
+      <c r="L92" s="68">
+        <f t="shared" ref="L92:O93" si="33">L80+L86</f>
+        <v>1662.6659</v>
+      </c>
+      <c r="M92" s="68">
+        <f t="shared" si="33"/>
+        <v>1694.7034134200003</v>
+      </c>
+      <c r="N92" s="68">
+        <f t="shared" si="33"/>
+        <v>1689.2140190122163</v>
+      </c>
+      <c r="O92" s="68">
+        <f t="shared" si="33"/>
+        <v>1653.4038176145743</v>
+      </c>
+      <c r="P92" s="72"/>
+      <c r="Q92" s="72"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="66">
-        <f>MIN(K71-K80,K71)</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="66">
-        <f t="shared" ref="L86:O86" si="29">MIN(L71-L80,L71)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="66">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="41"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B87" t="s">
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="J93" s="76"/>
+      <c r="K93" s="77">
+        <f>K81+K87</f>
+        <v>-569.69000000000005</v>
+      </c>
+      <c r="L93" s="77">
+        <f t="shared" si="33"/>
+        <v>-291.2501220000031</v>
+      </c>
+      <c r="M93" s="77">
+        <f t="shared" si="33"/>
+        <v>45.744953398198959</v>
+      </c>
+      <c r="N93" s="77">
+        <f t="shared" si="33"/>
+        <v>298.41834498035018</v>
+      </c>
+      <c r="O93" s="77">
+        <f t="shared" si="33"/>
+        <v>610.86692158448614</v>
+      </c>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>60</v>
       </c>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="J87" s="64">
-        <f>E24</f>
-        <v>5000</v>
-      </c>
-      <c r="K87" s="58">
-        <f>K84-K86</f>
-        <v>5000</v>
-      </c>
-      <c r="L87" s="58">
-        <f t="shared" ref="L87:O87" si="30">L84-L86</f>
-        <v>5000</v>
-      </c>
-      <c r="M87" s="58">
-        <f t="shared" si="30"/>
-        <v>5000</v>
-      </c>
-      <c r="N87" s="58">
-        <f t="shared" si="30"/>
-        <v>5000</v>
-      </c>
-      <c r="O87" s="58">
-        <f t="shared" si="30"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="J88" s="50"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B89" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J89" s="50"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="J90" s="50"/>
-      <c r="K90" s="31">
-        <f>J93</f>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="J94" s="74">
+        <f>J82+J88</f>
         <v>15000</v>
       </c>
-      <c r="L90" s="31">
-        <f t="shared" ref="L90:O90" si="31">K93</f>
-        <v>14968.844999999999</v>
-      </c>
-      <c r="M90" s="31">
-        <f t="shared" si="31"/>
-        <v>14747.487253000001</v>
-      </c>
-      <c r="N90" s="31">
-        <f t="shared" si="31"/>
-        <v>14298.957498792202</v>
-      </c>
-      <c r="O90" s="31">
-        <f t="shared" si="31"/>
-        <v>13580.830664234953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="J91" s="50"/>
-      <c r="K91" s="48">
-        <f>K79+K85</f>
-        <v>1200</v>
-      </c>
-      <c r="L91" s="48">
-        <f t="shared" ref="L91:O92" si="32">L79+L85</f>
-        <v>1198.1306999999999</v>
-      </c>
-      <c r="M91" s="48">
-        <f t="shared" si="32"/>
-        <v>1184.8492351800001</v>
-      </c>
-      <c r="N91" s="48">
-        <f t="shared" si="32"/>
-        <v>1157.9374499275323</v>
-      </c>
-      <c r="O91" s="48">
-        <f t="shared" si="32"/>
-        <v>1114.8498398540971</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="66">
-        <f>K80+K86</f>
-        <v>31.154999999999973</v>
-      </c>
-      <c r="L92" s="66">
-        <f t="shared" si="32"/>
-        <v>221.35774699999865</v>
-      </c>
-      <c r="M92" s="66">
-        <f t="shared" si="32"/>
-        <v>448.52975420779921</v>
-      </c>
-      <c r="N92" s="66">
-        <f t="shared" si="32"/>
-        <v>718.12683455725028</v>
-      </c>
-      <c r="O92" s="66">
-        <f t="shared" si="32"/>
-        <v>1036.3245640152631</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="J93" s="64">
-        <f>J81+J87</f>
-        <v>15000</v>
-      </c>
-      <c r="K93" s="58">
-        <f>K90-K92</f>
-        <v>14968.844999999999</v>
-      </c>
-      <c r="L93" s="58">
-        <f t="shared" ref="L93:O93" si="33">L90-L92</f>
-        <v>14747.487253000001</v>
-      </c>
-      <c r="M93" s="58">
-        <f t="shared" si="33"/>
-        <v>14298.957498792202</v>
-      </c>
-      <c r="N93" s="58">
-        <f t="shared" si="33"/>
-        <v>13580.830664234953</v>
-      </c>
-      <c r="O93" s="58">
-        <f t="shared" si="33"/>
-        <v>12544.506100219689</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
+      <c r="K94" s="48">
+        <f>K91-K93</f>
+        <v>15569.69</v>
+      </c>
+      <c r="L94" s="48">
+        <f t="shared" ref="L94:O94" si="34">L91-L93</f>
+        <v>15860.940122000004</v>
+      </c>
+      <c r="M94" s="48">
+        <f t="shared" si="34"/>
+        <v>15815.195168601804</v>
+      </c>
+      <c r="N94" s="48">
+        <f t="shared" si="34"/>
+        <v>15516.776823621454</v>
+      </c>
+      <c r="O94" s="48">
+        <f t="shared" si="34"/>
+        <v>14905.909902036969</v>
+      </c>
+      <c r="P94" s="72"/>
+      <c r="Q94" s="72"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B96" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B97" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
         <v>72</v>
       </c>
-      <c r="O97" s="31">
+      <c r="O98" s="68">
         <f>O38</f>
         <v>4791.2672500000026</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B98" s="1" t="s">
+      <c r="P98" s="72"/>
+      <c r="Q98" s="72"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="68">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="78">
         <f>E16</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
+      <c r="P99" s="72"/>
+      <c r="Q99" s="72"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
         <v>19</v>
       </c>
-      <c r="O99" s="41">
-        <f>O97*O98</f>
+      <c r="O100" s="70">
+        <f>O98*O99</f>
         <v>47912.67250000003</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B100" s="1" t="s">
+      <c r="P100" s="72"/>
+      <c r="Q100" s="72"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="67">
-        <f>O93</f>
-        <v>12544.506100219689</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B101" s="36" t="s">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="79">
+        <f>O94</f>
+        <v>14905.909902036969</v>
+      </c>
+      <c r="P101" s="72"/>
+      <c r="Q101" s="72"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B102" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="37"/>
-      <c r="O101" s="63">
-        <f>O99-O100</f>
-        <v>35368.166399780341</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="51">
+        <f>O100-O101</f>
+        <v>33006.762597963061</v>
+      </c>
+      <c r="P102" s="72"/>
+      <c r="Q102" s="72"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O103" s="72"/>
+      <c r="P103" s="72"/>
+      <c r="Q103" s="72"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
         <v>64</v>
       </c>
-      <c r="O103" s="41">
+      <c r="O104" s="70">
         <f>E27</f>
         <v>10500</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B105" s="69" t="s">
+      <c r="P104" s="72"/>
+      <c r="Q104" s="72"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O105" s="72"/>
+      <c r="P105" s="72"/>
+      <c r="Q105" s="72"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B106" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="70"/>
-      <c r="H105" s="70"/>
-      <c r="I105" s="70"/>
-      <c r="J105" s="70"/>
-      <c r="K105" s="70"/>
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="70"/>
-      <c r="O105" s="71">
-        <f>O101/O103</f>
-        <v>3.36839679997908</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A106" s="10" t="s">
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="55">
+        <f>O102/O104</f>
+        <v>3.1435011998060056</v>
+      </c>
+      <c r="P106" s="72"/>
+      <c r="Q106" s="72"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A107" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="72" t="s">
+      <c r="B107" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="73"/>
-      <c r="I106" s="73"/>
-      <c r="J106" s="73"/>
-      <c r="K106" s="73"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="74">
-        <f>O105^(1/5)-1</f>
-        <v>0.27492503503674226</v>
-      </c>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="57"/>
+      <c r="N107" s="57"/>
+      <c r="O107" s="58">
+        <f>O106^(1/5)-1</f>
+        <v>0.2574268396617545</v>
+      </c>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O108" s="72"/>
+      <c r="P108" s="72"/>
+      <c r="Q108" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
